--- a/metodo solver/metodo solver.xlsx
+++ b/metodo solver/metodo solver.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laboratorio\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BB42344B-F333-4D39-953F-4EDCDECDB16A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21840C82-8E49-4D76-9599-5CB4FF107AC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Relatório de Respostas 1" sheetId="2" r:id="rId1"/>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="80">
   <si>
     <t>Solução</t>
   </si>
@@ -309,6 +309,9 @@
   </si>
   <si>
     <t>J</t>
+  </si>
+  <si>
+    <t>0,10.5</t>
   </si>
 </sst>
 </file>
@@ -1741,7 +1744,7 @@
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1754,7 +1757,7 @@
     <col min="6" max="6" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.140625" style="1" customWidth="1"/>
     <col min="8" max="8" width="7" style="1" customWidth="1"/>
-    <col min="9" max="9" width="7" customWidth="1"/>
+    <col min="9" max="9" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -1815,6 +1818,33 @@
       <c r="B3" s="1">
         <v>7.0000000000000007E-2</v>
       </c>
+      <c r="C3" s="1">
+        <v>0.09</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.12</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0.13</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0.22</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0.18</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="J3" t="s">
+        <v>79</v>
+      </c>
+      <c r="K3" s="1">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
